--- a/items.xlsx
+++ b/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt 110v 220v</t>
+          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático B</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático B</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2578,12 +2578,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,22 +2593,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>59,84</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.590,40</t>
+          <t>1.073,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,12 +2620,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr 1200 Metros Red Line Longa</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2640,17 +2640,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>77,90</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.038,10</t>
+          <t>1.072,98</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,17 +2662,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_957397-MLU73268897371_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2682,17 +2682,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.617,00</t>
+          <t>969,74</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,37 +2704,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>442,83</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>754,60</t>
+          <t>885,66</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,12 +2746,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_679500-MLU72649344532_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_625231-MLB53860014474_022023-I.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>603,90</t>
+          <t>844,78</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2788,37 +2788,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_843463-MLB50878502951_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_678428-MLB54547962850_032023-I.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>57,87</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>462,96</t>
+          <t>844,76</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2830,12 +2830,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_732018-MLB48108814402_112021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_700367-MLB50593698659_072022-I.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo Top</t>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,22 +2845,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>417,27</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>404,96</t>
+          <t>834,54</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_962812-MLB54002904261_022023-I.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr 1200 Metros Red Line Longa</t>
+          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,22 +2887,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>389,76</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>315,60</t>
+          <t>779,52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2914,37 +2914,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_721498-MLU73213161873_122023-I.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>715,34</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>315,60</t>
+          <t>715,34</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2956,37 +2956,37 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_966028-MLB31813237302_082019-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_892724-MLB52322705101_112022-I.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Verde</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>52,11</t>
+          <t>356,25</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>260,55</t>
+          <t>712,50</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2998,12 +2998,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_862912-MLB69339271479_052023-I.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>59,99</t>
+          <t>345,65</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>239,96</t>
+          <t>691,30</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_722336-MLB78276565613_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,22 +3055,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>345,65</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>231,60</t>
+          <t>691,30</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3082,12 +3082,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_690691-MLB75462291152_042024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_752800-MLB49277310537_032022-I.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,22 +3097,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>56,27</t>
+          <t>681,27</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>225,08</t>
+          <t>681,27</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3124,12 +3124,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_853391-MLB44847464798_022021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,22 +3139,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>59,99</t>
+          <t>340,63</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>179,97</t>
+          <t>681,26</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_797157-MLB54849219515_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 12</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,22 +3181,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>508.469</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>58,16</t>
+          <t>668,25</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>174,48</t>
+          <t>668,25</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3208,12 +3208,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_796803-MLB78276392635_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_658346-MLB53644848584_022023-I.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3228,17 +3228,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>622,94</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>173,70</t>
+          <t>622,94</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3250,12 +3250,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_900675-MLB54692317757_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Controle Jfa Resistente Água Automotivo Longa Distância</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LIKE PARTS</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>83,63</t>
+          <t>309,70</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>167,26</t>
+          <t>619,40</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3292,37 +3292,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_761552-MLU74990916546_032024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_961182-MLB54983323169_052023-I.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>606,10</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>164,70</t>
+          <t>606,10</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3334,12 +3334,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_767072-MLB50865489711_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_984340-MLU72088423840_102023-I.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,22 +3349,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>598,59</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>157,80</t>
+          <t>598,59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_900488-MLU79165686875_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_671662-MLB49843694346_052022-I.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Fonte Automotiva 150a Jfa Carregador Sli</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,22 +3391,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>52,19</t>
+          <t>598,59</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>156,57</t>
+          <t>598,59</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3418,37 +3418,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_697816-MLB73703605982_012024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_790336-MLB50713522860_072022-I.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>75,00</t>
+          <t>587,60</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>150,00</t>
+          <t>587,60</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3460,22 +3460,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_764531-MLU73904210163_012024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_656486-MLB79659975414_102024-I.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>138,00</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>138,00</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3502,37 +3502,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_848290-MLA79921508840_102024-I.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>68,90</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>137,80</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,37 +3544,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_965433-MLB54836690046_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Só Controle Jfa K1200 Longa Distancia Reposição Sem Central</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>487.758</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>44,50</t>
+          <t>581,58</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>133,50</t>
+          <t>581,58</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,12 +3586,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_873308-MLU73426528929_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_774812-MLB49041247604_022022-I.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3601,22 +3601,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>61,70</t>
+          <t>570,57</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>123,40</t>
+          <t>570,57</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3628,12 +3628,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_607787-MLB49772557863_042022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BRO E-COMMERCE</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>117,52</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>117,52</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_942598-MLB41718006581_052020-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_672703-MLB70632844973_072023-I.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Storm C</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3685,22 +3685,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TEM ONLINE</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>56,60</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>113,20</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3712,12 +3712,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_632112-MLB49023662624_022022-I.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>110,25</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>110,25</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_750026-MLB50225368112_062022-I.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Jfa Bob Storm 200 Bivolt Caixa Bob 200a</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,22 +3769,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>544,35</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>109,80</t>
+          <t>544,35</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3796,12 +3796,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,22 +3811,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>53,99</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>107,98</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>52,01</t>
+          <t>527,98</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>104,02</t>
+          <t>527,98</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3880,37 +3880,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_659227-MLB80586766106_112024-I.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K120</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>52,01</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>104,02</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3922,22 +3922,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>99,11</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>99,11</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3989,12 +3989,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>98,90</t>
+          <t>453,50</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>98,90</t>
+          <t>453,50</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4006,12 +4006,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_730535-MLB54516678914_032023-I.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Controle Jfa Aparelho Original Som Carro</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LIKE PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>96,23</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>96,23</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4048,37 +4048,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_878289-MLB54955842400_042023-I.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>45,16</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>90,32</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4090,12 +4090,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ls Distribuidora</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4115,12 +4115,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_656933-MLB70349974043_072023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água.</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>508.651</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4157,12 +4157,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>72,87</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>72,87</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>64,90</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>64,90</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4216,22 +4216,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_661040-MLB49065058603_022022-I.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Ca</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4258,12 +4258,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4283,12 +4283,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>56,94</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>56,94</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4300,22 +4300,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4325,12 +4325,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>376,20</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>376,20</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4342,12 +4342,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>TOTAL SOUND</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>54,15</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>54,15</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4426,22 +4426,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>50,82</t>
+          <t>368,60</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>50,82</t>
+          <t>368,60</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>50,25</t>
+          <t>359,90</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>50,25</t>
+          <t>359,90</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4510,22 +4510,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4535,12 +4535,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>49,90</t>
+          <t>359,10</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>49,90</t>
+          <t>359,10</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4552,37 +4552,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_770684-MLU78454788268_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Inversor 12v Para 110v Senoidal Pura 2000w Pico 4000w Jfa</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>RADICALSOM 4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.699,15</t>
+          <t>347,00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5.097,45</t>
+          <t>347,00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4594,37 +4594,37 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_675828-MLU78394143348_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_706285-MLB54979990534_042023-I.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000w 24v 220v Pico 4000w</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1.783,30</t>
+          <t>345,66</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3.566,60</t>
+          <t>345,66</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4636,12 +4636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_801814-MLU77544988757_072024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Inversor Off-grid Senoidal Pura 1000w - 48v - 220v Rack</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2.465,00</t>
+          <t>337,77</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2.465,00</t>
+          <t>337,77</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_903870-MLB50861751187_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4693,22 +4693,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>530,10</t>
+          <t>527,98</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.060,20</t>
+          <t>527,98</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4720,12 +4720,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_720608-MLB51559805129_092022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_659227-MLB80586766106_112024-I.jpg</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>456,44</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>456,44</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4762,22 +4762,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4787,12 +4787,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4804,12 +4804,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_985730-MLB50282776217_062022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>414,87</t>
+          <t>453,50</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>414,87</t>
+          <t>453,50</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_814550-MLB72957017606_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_730535-MLB54516678914_032023-I.jpg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4888,17 +4888,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_951764-MLB72845857330_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_878289-MLB54955842400_042023-I.jpg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Equalizador E Balanceador De Baterias Solar Off Grid Jfa</t>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4908,17 +4908,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>165,60</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.490,40</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4930,12 +4930,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_661279-MLB51929304822_102022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Equalizador E Balanceador Para Banco De Baterias</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4945,22 +4945,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PLAYNETWORK TECN</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>169,00</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>507,00</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4972,12 +4972,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4987,22 +4987,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>39,90</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>678,30</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>34,32</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>171,60</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5056,37 +5056,37 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_661040-MLB49065058603_022022-I.jpg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Ca</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>40,85</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>163,40</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5098,37 +5098,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_942578-MLB54430716847_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>39,90</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>79,80</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5140,22 +5140,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5165,12 +5165,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>48,95</t>
+          <t>376,20</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>48,95</t>
+          <t>376,20</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_763912-MLB31075681648_062019-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>TOTAL SOUND</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>40,10</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>40,10</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_816724-MLB27726608589_072018-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>37,00</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>37,00</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5266,22 +5266,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_607356-MLB76002146225_042024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5291,12 +5291,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>845,00</t>
+          <t>368,60</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>845,00</t>
+          <t>368,60</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5308,12 +5308,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_879495-MLB73487538274_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>313,90</t>
+          <t>359,90</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>313,90</t>
+          <t>359,90</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5350,37 +5350,37 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>58,90</t>
+          <t>359,10</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>471,20</t>
+          <t>359,10</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5392,37 +5392,37 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_831836-MLB47751909816_102021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>RADICALSOM 4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>52,71</t>
+          <t>347,00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>105,42</t>
+          <t>347,00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5434,22 +5434,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_931162-MLB31145075002_062019-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_706285-MLB54979990534_042023-I.jpg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>47.110</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>74,00</t>
+          <t>345,66</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>74,00</t>
+          <t>345,66</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5476,22 +5476,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_969557-MLB54590722696_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>MR STA CATARINA</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>59,32</t>
+          <t>337,77</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>59,32</t>
+          <t>337,77</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5518,12 +5518,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_651872-MLB77432401375_072024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_762991-MLB48928222281_012022-I.jpg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Re</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5543,12 +5543,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>57,76</t>
+          <t>337,77</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>57,76</t>
+          <t>337,77</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5560,22 +5560,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_992276-MLB31357157758_072019-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_843614-MLB70061404302_062023-I.jpg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>51,93</t>
+          <t>330,17</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>51,93</t>
+          <t>330,17</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5602,12 +5602,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_818029-MLB46391236579_062021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Altabaixa Voltagem</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5627,12 +5627,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5644,12 +5644,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_757345-MLB45826987502_052021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>49,40</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>49,40</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5686,40 +5686,3946 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>301,71</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>301,71</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_616089-MLU76233412258_052024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>REDE AUTOPARTS</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>264,00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>264,00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>59,84</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>3.590,40</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>77,90</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>3.038,10</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_957397-MLU73268897371_122023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1.617,00</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>754,60</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_679500-MLU72649344532_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>603,90</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_843463-MLB50878502951_072022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>57,87</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>462,96</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_732018-MLB48108814402_112021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo Top</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>50,62</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>404,96</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>78,90</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>315,60</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>78,90</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>315,60</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_966028-MLB31813237302_082019-I.jpg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Verde</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>52,11</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>260,55</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>59,99</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>239,96</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_722336-MLB78276565613_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>231,60</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_690691-MLB75462291152_042024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>EXTREME ÁUDIO</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>56,27</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>225,08</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_853391-MLB44847464798_022021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>59,99</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>179,97</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_797157-MLB54849219515_042023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância Jfa Acqua 12</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>WE MARKET</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>58,16</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>174,48</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_796803-MLB78276392635_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>173,70</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_900675-MLB54692317757_032023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Controle Jfa Resistente Água Automotivo Longa Distância</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>LIKE PARTS</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>83,63</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>167,26</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_761552-MLU74990916546_032024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>164,70</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_767072-MLB50865489711_072022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>VETA ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>78,90</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>157,80</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_900488-MLU79165686875_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>52,19</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>156,57</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_697816-MLB73703605982_012024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>VETA ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_764531-MLU73904210163_012024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>68,90</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>137,80</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_965433-MLB54836690046_042023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Só Controle Jfa K1200 Longa Distancia Reposição Sem Central</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>487.758</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>44,50</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>133,50</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_873308-MLU73426528929_122023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>525.709</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>61,70</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>123,40</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_607787-MLB49772557863_042022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>BRO E-COMMERCE</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>117,52</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>117,52</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_942598-MLB41718006581_052020-I.jpg</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>TEM ONLINE</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>56,60</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>113,20</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>525.709</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>110,25</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>110,25</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>109,80</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>53,99</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>107,98</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>52,01</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>104,02</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K120</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>52,01</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>104,02</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>525.709</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>99,11</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>99,11</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>98,90</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>98,90</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Controle Jfa Aparelho Original Som Carro</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>LIKE PARTS</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>45,16</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>90,32</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Ls Distribuidora</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>84,00</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>84,00</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_656933-MLB70349974043_072023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>508.651</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>72,87</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>72,87</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>64,90</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>64,90</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>56,94</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>56,94</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>54,15</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>54,15</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distância Jfa K</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>50,82</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>50,82</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>50,25</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>50,25</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>49,90</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>49,90</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>52,01</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>104,02</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K120</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>52,01</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>104,02</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>525.709</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>99,11</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>99,11</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>98,90</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>98,90</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Controle Jfa Aparelho Original Som Carro</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>LIKE PARTS</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>45,16</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>90,32</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Ls Distribuidora</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>84,00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>84,00</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_656933-MLB70349974043_072023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água.</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>508.651</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>72,87</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>72,87</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>64,90</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>64,90</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>56,94</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>56,94</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>54,15</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>54,15</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distância Jfa K</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>50,82</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>50,82</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>50,25</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>50,25</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>49,90</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>49,90</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_770684-MLU78454788268_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Inversor 12v Para 110v Senoidal Pura 2000w Pico 4000w Jfa</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.699,15</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>5.097,45</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_675828-MLU78394143348_082024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Pura Jfa 2000w 24v 220v Pico 4000w</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.783,30</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>3.566,60</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_801814-MLU77544988757_072024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Inversor Off-grid Senoidal Pura 1000w - 48v - 220v Rack</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.465,00</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2.465,00</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_903870-MLB50861751187_072022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>530,10</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1.060,20</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_720608-MLB51559805129_092022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>456,44</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>456,44</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>423,70</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>423,70</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_985730-MLB50282776217_062022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>414,87</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>414,87</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_814550-MLB72957017606_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>308,63</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>308,63</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_951764-MLB72845857330_112023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Equalizador E Balanceador De Baterias Solar Off Grid Jfa</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>165,60</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1.490,40</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_661279-MLB51929304822_102022-I.jpg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Equalizador Para Banco De Baterias Jfa</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>PLAYNETWORK TECN</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>169,00</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>507,00</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>39,90</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>678,30</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>34,32</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>171,60</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>40,85</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>163,40</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_942578-MLB54430716847_032023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>39,90</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>79,80</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>48,95</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>48,95</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_763912-MLB31075681648_062019-I.jpg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>40,10</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>40,10</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_816724-MLB27726608589_072018-I.jpg</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>OBVIUS ACOUSTIC BOX</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>37,00</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>37,00</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_607356-MLB76002146225_042024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>845,00</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>845,00</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_879495-MLB73487538274_122023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>313,90</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>313,90</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>58,90</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>471,20</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_831836-MLB47751909816_102021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>52,71</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>105,42</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_931162-MLB31145075002_062019-I.jpg</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>47.110</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>74,00</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>74,00</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_969557-MLB54590722696_032023-I.jpg</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>MR STA CATARINA</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>59,32</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>59,32</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_651872-MLB77432401375_072024-I.jpg</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>57,76</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>57,76</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_992276-MLB31357157758_072019-I.jpg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>51,93</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>51,93</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_818029-MLB46391236579_062021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Altabaixa Voltagem</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_757345-MLB45826987502_052021-I.jpg</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>49,40</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>49,40</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_964672-MLB71407052530_092023-I.jpg</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Válvula De Descarga Rápida Suspensor Pneumático 1/4x1/4 Npt</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>494.177</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
         <is>
           <t>27,52</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>27,52</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>

--- a/items.xlsx
+++ b/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24.525,72</t>
+          <t>43.601,28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,17 +582,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>250,80</t>
+          <t>576,62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.025,60</t>
+          <t>13.838,88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.061,46</t>
+          <t>13.450,40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,12 +646,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>250,80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.555,34</t>
+          <t>12.038,40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.343,75</t>
+          <t>11.400,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,37 +730,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>576,62</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.189,58</t>
+          <t>9.714,97</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,12 +772,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>453,51</t>
+          <t>544,35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.535,10</t>
+          <t>9.253,95</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,12 +814,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>544,35</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.810,45</t>
+          <t>8.333,01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -856,37 +856,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.801,51</t>
+          <t>7.511,00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -908,27 +908,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SOM SC OFICIAL</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>559,00</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.354,00</t>
+          <t>6.437,88</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -940,12 +940,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,22 +955,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>536,50</t>
+          <t>453,51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.219,00</t>
+          <t>6.349,14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,12 +982,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_659328-MLB72384636288_102023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>453,51</t>
+          <t>622,93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.721,06</t>
+          <t>4.360,51</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1024,12 +1024,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,22 +1039,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>319,00</t>
+          <t>622,93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.552,00</t>
+          <t>4.360,51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,17 +1066,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_824318-MLB69466231227_052023-I.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>367,38</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.491,72</t>
+          <t>4.041,18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,37 +1108,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_676176-MLU74858609163_032024-I.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>442,82</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.868,79</t>
+          <t>3.985,38</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_700367-MLB50593698659_072022-I.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,22 +1165,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>417,27</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.868,79</t>
+          <t>3.755,43</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,37 +1192,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_824318-MLB69466231227_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>367,38</t>
+          <t>622,93</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.836,90</t>
+          <t>3.737,58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,12 +1234,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1254,17 +1254,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>527,90</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.669,08</t>
+          <t>3.695,30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1276,37 +1276,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_659328-MLB72384636288_102023-I.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>330,17</t>
+          <t>453,51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.650,85</t>
+          <t>3.628,08</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1318,12 +1318,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>57.860</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>403,00</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.612,00</t>
+          <t>3.394,93</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1370,27 +1370,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>SOM SC OFICIAL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>559,00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.609,47</t>
+          <t>3.354,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1402,17 +1402,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_892724-MLB52322705101_112022-I.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>527,90</t>
+          <t>356,25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.583,70</t>
+          <t>3.206,25</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1454,27 +1454,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>330,17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.543,15</t>
+          <t>2.971,53</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1486,12 +1486,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>57.860</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>403,00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.498,80</t>
+          <t>2.821,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1528,37 +1528,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_676176-MLU74858609163_032024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>442,82</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.328,46</t>
+          <t>2.622,90</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1590,17 +1590,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>608,00</t>
+          <t>319,00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.216,00</t>
+          <t>2.552,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1612,17 +1612,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1632,17 +1632,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>570,57</t>
+          <t>417,27</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.141,14</t>
+          <t>2.503,62</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,37 +1654,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_909896-MLB69124202347_042023-I.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>608,00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.124,10</t>
+          <t>2.432,00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1696,37 +1696,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_727301-MLB48928289401_012022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>374,69</t>
+          <t>570,57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.124,07</t>
+          <t>2.282,28</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1738,37 +1738,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>60.596</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>536,50</t>
+          <t>371,00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.073,00</t>
+          <t>2.226,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.072,98</t>
+          <t>2.145,96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>969,74</t>
+          <t>1.939,48</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1864,37 +1864,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>442,83</t>
+          <t>622,94</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>885,66</t>
+          <t>1.868,82</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1906,37 +1906,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_625231-MLB53860014474_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>608,00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>844,78</t>
+          <t>1.824,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1948,12 +1948,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_678428-MLB54547962850_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_984340-MLU72088423840_102023-I.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
+          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,22 +1963,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>598,59</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>844,76</t>
+          <t>1.795,77</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1990,12 +1990,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_700367-MLB50593698659_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_678428-MLB54547962850_032023-I.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>834,54</t>
+          <t>1.689,52</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2032,12 +2032,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_962812-MLB54002904261_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,22 +2047,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>389,76</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>779,52</t>
+          <t>1.609,50</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2074,37 +2074,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_721498-MLU73213161873_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>715,34</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>715,34</t>
+          <t>1.609,47</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2116,37 +2116,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_892724-MLB52322705101_112022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_974214-MLB72510376379_102023-I.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Stor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>356,25</t>
+          <t>309,70</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>712,50</t>
+          <t>1.548,50</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2158,12 +2158,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_862912-MLB69339271479_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,22 +2173,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>345,65</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>691,30</t>
+          <t>1.498,80</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,22 +2200,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_723232-MLB54585452613_032023-I.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>345,65</t>
+          <t>715,33</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>691,30</t>
+          <t>1.430,66</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2242,37 +2242,37 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_752800-MLB49277310537_032022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>681,27</t>
+          <t>442,83</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>681,27</t>
+          <t>1.328,49</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_625231-MLB53860014474_022023-I.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>340,63</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>681,26</t>
+          <t>1.267,17</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_658346-MLB53644848584_022023-I.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,22 +2341,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>508.469</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>668,25</t>
+          <t>622,94</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>668,25</t>
+          <t>1.245,88</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2368,12 +2368,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_658346-MLB53644848584_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>622,94</t>
+          <t>1.245,88</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2410,37 +2410,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>309,70</t>
+          <t>301,71</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>619,40</t>
+          <t>1.206,84</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2452,12 +2452,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_961182-MLB54983323169_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,22 +2467,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>606,10</t>
+          <t>570,57</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>606,10</t>
+          <t>1.141,14</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,37 +2494,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_984340-MLU72088423840_102023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>376,20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>1.128,60</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2536,12 +2536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_671662-MLB49843694346_052022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_727301-MLB48928289401_012022-I.jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 150a Jfa Carregador Sli</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,22 +2551,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>374,69</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>1.124,07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2578,12 +2578,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,22 +2593,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>536,50</t>
+          <t>59,84</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.073,00</t>
+          <t>8.377,60</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,12 +2620,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2640,17 +2640,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>77,90</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.072,98</t>
+          <t>5.063,50</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,17 +2662,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_957397-MLU73268897371_122023-I.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2682,17 +2682,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>53,90</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>969,74</t>
+          <t>2.587,20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,37 +2704,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>442,83</t>
+          <t>53,90</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>885,66</t>
+          <t>1.617,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,12 +2746,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_625231-MLB53860014474_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>49,90</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>844,78</t>
+          <t>1.047,90</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2788,12 +2788,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_678428-MLB54547962850_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_679500-MLU72649344532_112023-I.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,22 +2803,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>844,76</t>
+          <t>933,30</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2830,17 +2830,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_700367-MLB50593698659_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_843463-MLB50878502951_072022-I.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2850,17 +2850,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>57,87</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>834,54</t>
+          <t>810,18</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_962812-MLB54002904261_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_761552-MLU74990916546_032024-I.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,22 +2887,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>389,76</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>779,52</t>
+          <t>603,90</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2914,37 +2914,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_721498-MLU73213161873_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>715,34</t>
+          <t>54,00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>715,34</t>
+          <t>594,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2956,37 +2956,37 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_892724-MLB52322705101_112022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>356,25</t>
+          <t>98,90</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>712,50</t>
+          <t>494,50</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2998,12 +2998,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_862912-MLB69339271479_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,22 +3013,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>345,65</t>
+          <t>78,90</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>691,30</t>
+          <t>473,40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_732018-MLB48108814402_112021-I.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo Top</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3060,17 +3060,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>345,65</t>
+          <t>50,62</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>691,30</t>
+          <t>455,58</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3082,12 +3082,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_752800-MLB49277310537_032022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,22 +3097,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>RENOV VENDAS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>681,27</t>
+          <t>75,06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>681,27</t>
+          <t>450,36</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3124,12 +3124,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,22 +3139,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>340,63</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>681,26</t>
+          <t>439,20</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,22 +3181,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>508.469</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>668,25</t>
+          <t>68,90</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>668,25</t>
+          <t>413,40</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3208,12 +3208,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_658346-MLB53644848584_022023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_797157-MLB54849219515_042023-I.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt</t>
+          <t>Controle De Longa Distância Jfa Acqua 12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,22 +3223,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>622,94</t>
+          <t>58,16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>622,94</t>
+          <t>407,12</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3250,12 +3250,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_722336-MLB78276565613_082024-I.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,22 +3265,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>309,70</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>619,40</t>
+          <t>405,30</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3292,37 +3292,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_961182-MLB54983323169_052023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>606,10</t>
+          <t>84,00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>606,10</t>
+          <t>336,00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3334,12 +3334,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_984340-MLU72088423840_102023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,22 +3349,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>45,56</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>318,92</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_671662-MLB49843694346_052022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 150a Jfa Carregador Sli</t>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,22 +3391,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>78,90</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>315,60</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3418,37 +3418,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_790336-MLB50713522860_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Controle Jfa Aparelho Original Som Carro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>LIKE PARTS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>587,60</t>
+          <t>96,23</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>587,60</t>
+          <t>288,69</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3460,37 +3460,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_656486-MLB79659975414_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_764531-MLU73904210163_012024-I.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivo</t>
+          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>587,59</t>
+          <t>138,00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>587,59</t>
+          <t>276,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3502,37 +3502,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_848290-MLA79921508840_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_965433-MLB54836690046_042023-I.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>Só Controle Jfa K1200 Longa Distancia Reposição Sem Central</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>487.758</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>587,59</t>
+          <t>44,50</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>587,59</t>
+          <t>267,00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,37 +3544,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_900488-MLU79165686875_092024-I.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>581,58</t>
+          <t>52,19</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>581,58</t>
+          <t>260,95</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,37 +3586,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_774812-MLB49041247604_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_966028-MLB31813237302_082019-I.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+          <t>Controle Longa Distância Jfa K600 Comple</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>570,57</t>
+          <t>52,11</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>570,57</t>
+          <t>260,55</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3628,37 +3628,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>84,00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>252,00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3670,37 +3670,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_672703-MLB70632844973_072023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Storm C</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>59,99</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>239,96</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3712,37 +3712,37 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_632112-MLB49023662624_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_796803-MLB78276392635_082024-I.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>231,60</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_750026-MLB50225368112_062022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_683477-MLB46479627786_062021-I.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200 Bivolt Caixa Bob 200a</t>
+          <t>Controle Jfa Red Line Longa Distância</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,22 +3769,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>544,35</t>
+          <t>115,47</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>544,35</t>
+          <t>230,94</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3796,12 +3796,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_690691-MLB75462291152_042024-I.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,22 +3811,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>56,27</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>225,08</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_697816-MLB73703605982_012024-I.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>527,98</t>
+          <t>75,00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>527,98</t>
+          <t>225,00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3880,12 +3880,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_659227-MLB80586766106_112024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3895,22 +3895,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>525.709</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>110,25</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>220,50</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3922,37 +3922,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>MOTOR SHOP 2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>71,25</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>213,75</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Remoto Universal Longa Jfa K120</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>453,50</t>
+          <t>52,01</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>453,50</t>
+          <t>208,04</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4006,12 +4006,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_730535-MLB54516678914_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_745260-MLB72817615283_112023-I.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,22 +4021,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>96,23</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>192,46</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4048,12 +4048,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_878289-MLB54955842400_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_853391-MLB44847464798_022021-I.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>59,99</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>179,97</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4090,12 +4090,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,22 +4105,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>173,70</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_900675-MLB54692317757_032023-I.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Jfa Resistente Água Automotivo Longa Distância</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>LIKE PARTS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>83,63</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>167,26</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,22 +4189,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>53,90</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>161,70</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4216,37 +4216,37 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_661040-MLB49065058603_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_767072-MLB50865489711_072022-I.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Ca</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>78,90</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>157,80</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4258,17 +4258,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4278,17 +4278,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>52,01</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>156,03</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4300,12 +4300,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distânci</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4315,22 +4315,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>376,20</t>
+          <t>66,20</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>376,20</t>
+          <t>132,40</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4342,37 +4342,37 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_873308-MLU73426528929_122023-I.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TOTAL SOUND</t>
+          <t>525.709</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>61,70</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>123,40</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4384,22 +4384,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_607787-MLB49772557863_042022-I.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>BRO E-COMMERCE</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>117,52</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>117,52</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4426,37 +4426,37 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>368,60</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>368,60</t>
+          <t>115,80</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_839434-MLB48043881159_102021-I.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>MR STA CATARINA</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>359,90</t>
+          <t>114,39</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>359,90</t>
+          <t>114,39</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_942598-MLB41718006581_052020-I.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4525,22 +4525,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>TEM ONLINE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>359,10</t>
+          <t>56,60</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>359,10</t>
+          <t>113,20</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4552,12 +4552,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_919583-MLB69835390787_062023-I.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RADICALSOM 4</t>
+          <t>BRAZIL ACESSÓRIOS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>347,00</t>
+          <t>110,00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>347,00</t>
+          <t>110,00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4594,12 +4594,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_706285-MLB54979990534_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4609,22 +4609,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>345,66</t>
+          <t>53,99</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>345,66</t>
+          <t>107,98</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4636,12 +4636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_684625-MLB69336441030_052023-I.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4656,17 +4656,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>337,77</t>
+          <t>51,83</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>337,77</t>
+          <t>103,66</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>527,98</t>
+          <t>64,90</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>527,98</t>
+          <t>64,90</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4720,22 +4720,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_659227-MLB80586766106_112024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>63,90</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>63,90</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4762,22 +4762,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_663657-MLB50546236285_072022-I.jpg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4787,12 +4787,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>63,90</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>63,90</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4804,22 +4804,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_903977-MLB78276685801_082024-I.jpg</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>453,50</t>
+          <t>61,90</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>453,50</t>
+          <t>61,90</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4846,22 +4846,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_730535-MLB54516678914_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_820716-MLB78276343629_082024-I.jpg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>61,90</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>61,90</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4888,12 +4888,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_878289-MLB54955842400_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUPREMA DIST.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4913,12 +4913,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>61,75</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>61,75</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4930,12 +4930,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_682880-MLU74615278003_022024-I.jpg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>ENERGY SOUND</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>61,19</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>61,19</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4972,12 +4972,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_854982-MLB78276776957_082024-I.jpg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Verme</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4997,12 +4997,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_683682-MLB78050101410_082024-I.jpg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5039,12 +5039,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5056,12 +5056,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_661040-MLB49065058603_022022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Ca</t>
+          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5081,12 +5081,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>56,94</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>56,94</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5098,17 +5098,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_931665-MLB69501339562_052023-I.jpg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K600 + Cent</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>54,99</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>54,99</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5140,22 +5140,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5165,12 +5165,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>376,20</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>376,20</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TOTAL SOUND</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>54,15</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>54,15</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>50,25</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>50,25</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5266,22 +5266,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_992598-MLB54979947470_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_948563-MLB48108714022_112021-I.jpg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Jfa K1200 Controle Longa Distancia 1200</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5291,12 +5291,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>368,60</t>
+          <t>45,56</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>368,60</t>
+          <t>45,56</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5308,12 +5308,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_903870-MLB50861751187_072022-I.jpg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5323,22 +5323,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>359,90</t>
+          <t>530,10</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>359,90</t>
+          <t>1.060,20</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5350,17 +5350,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_814550-MLB72957017606_112023-I.jpg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5370,17 +5370,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>359,10</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>359,10</t>
+          <t>925,89</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5392,12 +5392,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5407,22 +5407,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RADICALSOM 4</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>347,00</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>347,00</t>
+          <t>847,40</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5434,12 +5434,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_706285-MLB54979990534_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_790111-MLB71583539893_092023-I.jpg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>345,66</t>
+          <t>566,99</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>345,66</t>
+          <t>566,99</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5476,22 +5476,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_869861-MLU72645109055_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_720608-MLB51559805129_092022-I.jpg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>337,77</t>
+          <t>456,44</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>337,77</t>
+          <t>456,44</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5518,12 +5518,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_762991-MLB48928222281_012022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Re</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5543,12 +5543,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>337,77</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>337,77</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5560,22 +5560,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_843614-MLB70061404302_062023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_985730-MLB50282776217_062022-I.jpg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>330,17</t>
+          <t>414,87</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>330,17</t>
+          <t>414,87</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5602,12 +5602,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5617,22 +5617,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>58,90</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>589,00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5644,37 +5644,37 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_831836-MLB47751909816_102021-I.jpg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>52,71</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>527,10</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5686,37 +5686,37 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_828017-MLB49774440089_042022-I.jpg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
+          <t>Kit 2 Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ELETROKING</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>301,71</t>
+          <t>118,32</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>301,71</t>
+          <t>236,64</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5728,37 +5728,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_616089-MLU76233412258_052024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_741366-MLB31145062343_062019-I.jpg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>47.110</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>264,00</t>
+          <t>74,00</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>264,00</t>
+          <t>222,00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5770,37 +5770,37 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_931162-MLB31145075002_062019-I.jpg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>47.110</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>59,84</t>
+          <t>74,00</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3.590,40</t>
+          <t>148,00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5812,12 +5812,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_866836-MLB73171786026_122023-I.jpg</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Supressor De Ruídos Filtro Rca Jfa 20/20k - 2 Canais</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5827,22 +5827,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CIA DO SOM AUTO</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>77,90</t>
+          <t>61,66</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3.038,10</t>
+          <t>123,32</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_957397-MLU73268897371_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5869,22 +5869,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>58,10</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1.617,00</t>
+          <t>116,20</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5896,12 +5896,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_651872-MLB77432401375_072024-I.jpg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5911,22 +5911,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>57,76</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>754,60</t>
+          <t>115,52</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_679500-MLU72649344532_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_853523-MLB50896040291_072022-I.jpg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Filtro Anti Ruido Rca 20/20k Jfa - Isola</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5953,22 +5953,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>35.284</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>77,30</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>603,90</t>
+          <t>77,30</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5980,12 +5980,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_843463-MLB50878502951_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5995,22 +5995,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>57,87</t>
+          <t>61,50</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>462,96</t>
+          <t>61,50</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6022,37 +6022,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_732018-MLB48108814402_112021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_671938-MLB47751896566_102021-I.jpg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo Top</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>59,90</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>404,96</t>
+          <t>59,90</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6064,37 +6064,37 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_969557-MLB54590722696_032023-I.jpg</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>MR STA CATARINA</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>59,32</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>315,60</t>
+          <t>59,32</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6106,37 +6106,37 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_651282-MLB31026636553_062019-I.jpg</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>55,71</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>315,60</t>
+          <t>55,71</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6148,12 +6148,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_966028-MLB31813237302_082019-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_992276-MLB31357157758_072019-I.jpg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Verde</t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6163,22 +6163,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>52,11</t>
+          <t>51,93</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>260,55</t>
+          <t>51,93</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6190,12 +6190,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6205,22 +6205,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>59,99</t>
+          <t>39,90</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>239,96</t>
+          <t>957,60</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6232,12 +6232,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_722336-MLB78276565613_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_816724-MLB27726608589_072018-I.jpg</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6247,22 +6247,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>37,00</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>231,60</t>
+          <t>370,00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6274,12 +6274,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_690691-MLB75462291152_042024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6289,22 +6289,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>56,27</t>
+          <t>40,85</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>225,08</t>
+          <t>326,80</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6316,12 +6316,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_853391-MLB44847464798_022021-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6336,17 +6336,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>59,99</t>
+          <t>34,32</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>179,97</t>
+          <t>274,56</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_797157-MLB54849219515_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_942578-MLB54430716847_032023-I.jpg</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 12</t>
+          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6383,12 +6383,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>58,16</t>
+          <t>39,90</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>174,48</t>
+          <t>119,70</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6400,12 +6400,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_796803-MLB78276392635_082024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RENOV VENDAS</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6425,12 +6425,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>32,80</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>173,70</t>
+          <t>98,40</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6442,12 +6442,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_900675-MLB54692317757_032023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Controle Jfa Resistente Água Automotivo Longa Distância</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6457,22 +6457,22 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LIKE PARTS</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>83,63</t>
+          <t>48,95</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>167,26</t>
+          <t>48,95</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6484,12 +6484,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_761552-MLU74990916546_032024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_763912-MLB31075681648_062019-I.jpg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6499,22 +6499,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>40,10</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>164,70</t>
+          <t>40,10</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_767072-MLB50865489711_072022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6541,22 +6541,22 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>37,00</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>157,80</t>
+          <t>37,00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6568,37 +6568,37 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_900488-MLU79165686875_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_951764-MLB72845857330_112023-I.jpg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Equalizador E Balanceador De Baterias Solar Off Grid Jfa</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>52,19</t>
+          <t>165,60</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>156,57</t>
+          <t>1.490,40</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6610,12 +6610,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_697816-MLB73703605982_012024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_661279-MLB51929304822_102022-I.jpg</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
+          <t>Equalizador Para Banco De Baterias Jfa</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6625,22 +6625,22 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>PLAYNETWORK TECN</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>75,00</t>
+          <t>169,00</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>150,00</t>
+          <t>507,00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6652,12 +6652,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_764531-MLU73904210163_012024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_723571-MLB75839882563_042024-I.jpg</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>Inversor Jfa 2000w 24v 220v Off-grid Sen</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>138,00</t>
+          <t>1.696,70</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>138,00</t>
+          <t>1.696,70</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6694,22 +6694,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_741726-MLB70695708129_072023-I.jpg</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Nobreak Retificadora 24v/6a Rack Ou Bancada - Jfa</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>DINO TELECOM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6719,12 +6719,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>68,90</t>
+          <t>620,00</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>137,80</t>
+          <t>1.240,00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6736,12 +6736,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_965433-MLB54836690046_042023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_607356-MLB76002146225_042024-I.jpg</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Só Controle Jfa K1200 Longa Distancia Reposição Sem Central</t>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6751,22 +6751,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>487.758</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>44,50</t>
+          <t>845,00</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>133,50</t>
+          <t>845,00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6778,37 +6778,37 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_873308-MLU73426528929_122023-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_879495-MLB73487538274_122023-I.jpg</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>61,70</t>
+          <t>313,90</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>123,40</t>
+          <t>313,90</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6820,37 +6820,37 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_607787-MLB49772557863_042022-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_757345-MLB45826987502_052021-I.jpg</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>BRO E-COMMERCE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>117,52</t>
+          <t>49,40</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>117,52</t>
+          <t>197,60</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6862,37 +6862,37 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_942598-MLB41718006581_052020-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_818029-MLB46391236579_062021-I.jpg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Altabaixa Voltagem</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TEM ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>56,60</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>113,20</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6904,22 +6904,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_958689-MLA50213877822_062022-I.jpg</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6929,12 +6929,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>110,25</t>
+          <t>57,99</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>110,25</t>
+          <t>57,99</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6946,12 +6946,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+          <t>https://http2.mlstatic.com/D_964672-MLB71407052530_092023-I.jpg</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Válvula De Descarga Rápida Suspensor Pneumático 1/4x1/4 Npt</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6961,2671 +6961,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>494.177</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>27,52</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>109,80</t>
+          <t>27,52</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>TOPSHITECH</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>53,99</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>107,98</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>52,01</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>104,02</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Jfa K120</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>52,01</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>104,02</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>525.709</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>99,11</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>99,11</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>98,90</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>98,90</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Controle Jfa Aparelho Original Som Carro</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>LIKE PARTS</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>96,23</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>96,23</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>45,16</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>90,32</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Ls Distribuidora</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>84,00</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>84,00</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_656933-MLB70349974043_072023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>508.651</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>72,87</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>72,87</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>64,90</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>64,90</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>57,90</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>57,90</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>TOPSHITECH</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>56,94</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>56,94</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>54,15</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>54,15</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Controle Universal Longa Distância Jfa K</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>53,90</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>53,90</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>50,82</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>50,82</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>50,25</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>50,25</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>49,90</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>49,90</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>52,01</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>104,02</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Jfa K120</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>52,01</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>104,02</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>525.709</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>99,11</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>99,11</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>98,90</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>98,90</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Controle Jfa Aparelho Original Som Carro</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>LIKE PARTS</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>96,23</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>96,23</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>45,16</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>90,32</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Ls Distribuidora</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>84,00</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>84,00</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_656933-MLB70349974043_072023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>508.651</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>72,87</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>72,87</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>64,90</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>64,90</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>57,90</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>57,90</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>TOPSHITECH</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>56,94</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>56,94</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>54,15</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>54,15</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Controle Universal Longa Distância Jfa K</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>53,90</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>53,90</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>50,82</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>50,82</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>50,25</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>50,25</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>49,90</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>49,90</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_770684-MLU78454788268_082024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Inversor 12v Para 110v Senoidal Pura 2000w Pico 4000w Jfa</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>1.699,15</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>5.097,45</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_675828-MLU78394143348_082024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000w 24v 220v Pico 4000w</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>1.783,30</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>3.566,60</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_801814-MLU77544988757_072024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Inversor Off-grid Senoidal Pura 1000w - 48v - 220v Rack</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>2.465,00</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>2.465,00</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_903870-MLB50861751187_072022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>530,10</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>1.060,20</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_720608-MLB51559805129_092022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>456,44</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>456,44</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>423,70</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>423,70</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_985730-MLB50282776217_062022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>414,87</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>414,87</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_814550-MLB72957017606_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>308,63</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>308,63</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_951764-MLB72845857330_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Equalizador E Balanceador De Baterias Solar Off Grid Jfa</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>165,60</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>1.490,40</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_661279-MLB51929304822_102022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Equalizador Para Banco De Baterias Jfa</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>PLAYNETWORK TECN</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>169,00</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>507,00</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>39,90</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>678,30</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>34,32</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>171,60</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>40,85</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>163,40</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_942578-MLB54430716847_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>39,90</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>79,80</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>48,95</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>48,95</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_763912-MLB31075681648_062019-I.jpg</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>40,10</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>40,10</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_816724-MLB27726608589_072018-I.jpg</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>37,00</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>37,00</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_607356-MLB76002146225_042024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>845,00</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>845,00</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_879495-MLB73487538274_122023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>313,90</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>313,90</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>58,90</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>471,20</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_831836-MLB47751909816_102021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>52,71</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>105,42</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_931162-MLB31145075002_062019-I.jpg</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>47.110</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>74,00</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>74,00</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_969557-MLB54590722696_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>MR STA CATARINA</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>59,32</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>59,32</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_651872-MLB77432401375_072024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>57,76</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>57,76</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_992276-MLB31357157758_072019-I.jpg</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>51,93</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>51,93</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_818029-MLB46391236579_062021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Altabaixa Voltagem</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_757345-MLB45826987502_052021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>49,40</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>49,40</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_964672-MLB71407052530_092023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Válvula De Descarga Rápida Suspensor Pneumático 1/4x1/4 Npt</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>494.177</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>27,52</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>27,52</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>

--- a/items.xlsx
+++ b/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>imagem</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tipo de Anúncio</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>vendedor</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>quantidade</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Preço Unitário</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Produto2</t>
         </is>
@@ -478,40 +483,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_958063-MLB49934481651_052022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
+          <t>https://http2.mlstatic.com/D_695151-MLB71455342832_092023-I.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímet</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>622,93</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>45.473,89</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>23.048,41</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -520,40 +530,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>681,27</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>43.601,28</t>
+          <t>356,25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>15.675,00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -562,40 +577,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>576,62</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13.838,88</t>
+          <t>681,27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>12.262,86</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -604,40 +624,45 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>336,26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13.450,40</t>
+          <t>250,80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>7.524,00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -646,40 +671,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
+          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>250,80</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12.038,40</t>
+          <t>576,62</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>6.919,44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -688,40 +718,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>356,25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.400,00</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>6.481,23</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -730,40 +765,45 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>422,39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.714,97</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>5.901,50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -772,40 +812,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>544,35</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9.253,95</t>
+          <t>622,93</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>4.360,51</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -814,40 +859,45 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8.333,01</t>
+          <t>453,51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>3.628,08</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -856,40 +906,45 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_659328-MLB72384636288_102023-I.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>536,50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.511,00</t>
+          <t>453,51</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>3.628,08</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -898,40 +953,45 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6.437,88</t>
+          <t>570,57</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>3.423,42</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -940,40 +1000,45 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>453,51</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6.349,14</t>
+          <t>622,93</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>3.114,65</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -982,40 +1047,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.360,51</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>3.086,30</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1024,40 +1094,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.360,51</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>2.909,22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1066,40 +1141,45 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_824318-MLB69466231227_052023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>367,38</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.041,18</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>2.682,45</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1108,40 +1188,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_676176-MLU74858609163_032024-I.jpg</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>DIGITALSHOP SC</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>442,82</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>3.985,38</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>2.656,92</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1150,40 +1235,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_700367-MLB50593698659_072022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.755,43</t>
+          <t>527,90</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>2.639,50</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1192,40 +1282,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_825351-MLB54955850426_042023-I.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.737,58</t>
+          <t>527,90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>2.639,50</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1234,40 +1329,45 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>527,90</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.695,30</t>
+          <t>456,45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>2.282,25</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1276,40 +1376,45 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_659328-MLB72384636288_102023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>453,51</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.628,08</t>
+          <t>681,27</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>2.043,81</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1318,40 +1423,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>https://http2.mlstatic.com/D_824318-MLB69466231227_052023-I.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3.394,93</t>
+          <t>367,38</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>1.836,90</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1360,40 +1470,45 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SOM SC OFICIAL</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>559,00</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3.354,00</t>
+          <t>608,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>1.824,00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1402,40 +1517,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_892724-MLB52322705101_112022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>356,25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3.206,25</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>1.694,80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1444,40 +1564,45 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>SOM SC OFICIAL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>330,17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.971,53</t>
+          <t>559,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>1.677,00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1486,40 +1611,45 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_808128-MLU79018719453_092024-I.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>57.860</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>403,00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.821,00</t>
+          <t>681,26</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>1.362,52</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1528,40 +1658,45 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_955064-MLB54976951730_042023-I.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.622,90</t>
+          <t>681,26</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>1.362,52</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1570,40 +1705,45 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_986892-MLU72566436564_112023-I.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>319,00</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.552,00</t>
+          <t>309,70</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>1.238,80</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1612,40 +1752,45 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.503,62</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>1.175,18</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1654,40 +1799,45 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_909896-MLB69124202347_042023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>https://http2.mlstatic.com/D_848290-MLA79921508840_102024-I.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>608,00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.432,00</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>1.175,18</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1696,40 +1846,45 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>570,57</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2.282,28</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>1.141,14</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1738,40 +1893,45 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>60.596</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>371,00</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.226,00</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>1.124,10</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1780,40 +1940,45 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.145,96</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>1.124,10</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1822,40 +1987,45 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.939,48</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>1.073,00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1864,40 +2034,45 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>622,94</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.868,82</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>1.072,98</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1906,40 +2081,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_760211-MLU78847211133_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>608,00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.824,00</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>1.072,98</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1948,40 +2128,45 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_984340-MLU72088423840_102023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
+          <t>https://http2.mlstatic.com/D_892724-MLB52322705101_112022-I.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>598,59</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.795,77</t>
+          <t>356,25</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>1.068,75</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -1990,40 +2175,45 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_678428-MLB54547962850_032023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
+          <t>https://http2.mlstatic.com/D_673993-MLU76295217595_052024-I.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.689,52</t>
+          <t>527,99</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>1.055,98</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2032,40 +2222,45 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>RADICALSOM 4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>536,50</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.609,50</t>
+          <t>347,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>1.041,00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2074,40 +2269,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_997188-MLB49005237375_022022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_918380-MLB69542789895_052023-I.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>536,49</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.609,47</t>
+          <t>346,75</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>1.040,25</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2116,40 +2316,45 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_974214-MLB72510376379_102023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Stor</t>
+          <t>https://http2.mlstatic.com/D_659227-MLB80586766106_112024-I.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>309,70</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.548,50</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>969,74</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2158,40 +2363,45 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.498,80</t>
+          <t>319,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>957,00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2200,40 +2410,45 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_723232-MLB54585452613_032023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 20</t>
+          <t>https://http2.mlstatic.com/D_629577-MLU72566243220_112023-I.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>715,33</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.430,66</t>
+          <t>453,50</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>907,00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2242,40 +2457,45 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_625231-MLB53860014474_022023-I.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>442,83</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.328,49</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>844,78</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2284,40 +2504,45 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_625231-MLB53860014474_022023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>422,39</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1.267,17</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>844,78</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2326,40 +2551,45 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_658346-MLB53644848584_022023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt</t>
+          <t>https://http2.mlstatic.com/D_917022-MLA79655293287_092024-I.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>622,94</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.245,88</t>
+          <t>417,28</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>834,56</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2368,40 +2598,45 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_746921-MLA79580297218_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_735533-MLU74560610879_022024-I.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>57.860</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>622,94</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.245,88</t>
+          <t>403,00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>806,00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2410,40 +2645,45 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_840508-MLB78474093058_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivolt Smart Cooler</t>
+          <t>https://http2.mlstatic.com/D_613799-MLU78253695852_082024-I.jpg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>301,71</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.206,84</t>
+          <t>374,69</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
+        <is>
+          <t>749,38</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2452,40 +2692,45 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_739383-MLU72397445846_102023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_901821-MLB50713446971_072022-I.jpg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>570,57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.141,14</t>
+          <t>715,66</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>715,66</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2494,40 +2739,45 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_705574-MLU72642518727_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_840820-MLB51371718073_092022-I.jpg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>SHOP ÁUDIO</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>376,20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.128,60</t>
+          <t>715,33</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>715,33</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2536,40 +2786,45 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_727301-MLB48928289401_012022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>https://http2.mlstatic.com/D_829230-MLB77603686922_072024-I.jpg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>TOPSHITECH</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>374,69</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.124,07</t>
+          <t>681,26</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>681,26</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2578,40 +2833,45 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>59,84</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>8.377,60</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>5.445,44</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2620,40 +2880,45 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>77,90</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>5.063,50</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>3.271,80</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2662,40 +2927,45 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_957397-MLU73268897371_122023-I.jpg</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>53,90</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2.587,20</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>1.455,30</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2704,40 +2974,45 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>53,90</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1.617,00</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>1.401,40</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2746,40 +3021,45 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>https://http2.mlstatic.com/D_757445-MLU75127160537_032024-I.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>49,90</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.047,90</t>
+          <t>269,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>807,00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2788,40 +3068,45 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_679500-MLU72649344532_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>https://http2.mlstatic.com/D_843463-MLB50878502951_072022-I.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>933,30</t>
+          <t>57,87</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>752,31</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2830,40 +3115,45 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_843463-MLB50878502951_072022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_679500-MLU72649344532_112023-I.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>57,87</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>810,18</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>658,80</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2872,40 +3162,45 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_761552-MLU74990916546_032024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>https://http2.mlstatic.com/D_916293-MLB79415803517_092024-I.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Kit 10 Controles Longa Distancia K1200 Universal Jfa</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>603,90</t>
+          <t>629,90</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>629,90</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2914,40 +3209,45 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>54,00</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>594,00</t>
+          <t>50,25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>603,00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2956,40 +3256,45 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>MOTOR SHOP 2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>98,90</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>494,50</t>
+          <t>77,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>462,00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -2998,40 +3303,45 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>https://http2.mlstatic.com/D_761552-MLU74990916546_032024-I.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>473,40</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>439,20</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3040,40 +3350,45 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_732018-MLB48108814402_112021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo Top</t>
+          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>455,58</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>329,40</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3082,40 +3397,45 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>https://http2.mlstatic.com/D_873308-MLU73426528929_122023-I.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RENOV VENDAS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>75,06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>450,36</t>
+          <t>63,10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>252,40</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3124,40 +3444,45 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>https://http2.mlstatic.com/D_797157-MLB54849219515_042023-I.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle De Longa Distância Jfa Acqua 12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>439,20</t>
+          <t>58,16</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>232,64</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3166,40 +3491,45 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_732018-MLB48108814402_112021-I.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>68,90</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>413,40</t>
+          <t>50,62</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>202,48</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3208,40 +3538,45 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_797157-MLB54849219515_042023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 12</t>
+          <t>https://http2.mlstatic.com/D_844246-MLU74770119864_032024-I.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>58,16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>407,12</t>
+          <t>64,90</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>194,70</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3250,40 +3585,45 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_722336-MLB78276565613_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>405,30</t>
+          <t>63,90</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>191,70</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3292,40 +3632,45 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_706060-MLB70443079683_072023-I.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 Resistente A Água. </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ls Distribuidora</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>508.651</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>336,00</t>
+          <t>79,97</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>159,94</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3334,40 +3679,45 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>https://http2.mlstatic.com/D_900488-MLU79165686875_092024-I.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>SUPERTRIO SOM</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>318,92</t>
+          <t>52,19</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>156,57</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3376,40 +3726,45 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_662437-MLB49645460154_042022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>https://http2.mlstatic.com/D_827408-MLB79435793395_092024-I.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>2 Controles Longa Distancia 1200 Acqua Jfa Resistente Água</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>315,60</t>
+          <t>149,90</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
+        <is>
+          <t>149,90</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3418,40 +3773,45 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_927390-MLB54695978118_032023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Controle Jfa Aparelho Original Som Carro</t>
+          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LIKE PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>SUBGRAVE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>96,23</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>288,69</t>
+          <t>49,32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>147,96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3460,40 +3820,45 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_764531-MLU73904210163_012024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>https://http2.mlstatic.com/D_812168-MLB49827094214_052022-I.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Jfa Longa Distancia Redline Wr Radio Pioneer</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29.464</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>138,00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>276,00</t>
+          <t>127,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>127,00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3502,40 +3867,45 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_965433-MLB54836690046_042023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Só Controle Jfa K1200 Longa Distancia Reposição Sem Central</t>
+          <t>https://http2.mlstatic.com/D_882624-MLB48108814606_112021-I.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Jfa K1200 Controle Longa Distancia 1200</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>487.758</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>44,50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>267,00</t>
+          <t>60,74</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>121,48</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3544,40 +3914,45 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_900488-MLU79165686875_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>https://http2.mlstatic.com/D_812168-MLB49827094214_052022-I.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Para Rádio Pioneer Original</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29.464</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>52,19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>260,95</t>
+          <t>119,90</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>119,90</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3586,40 +3961,45 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_966028-MLB31813237302_082019-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Comple</t>
+          <t>https://http2.mlstatic.com/D_720505-MLB50889960226_072022-I.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>52,11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>260,55</t>
+          <t>59,84</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>119,68</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3628,40 +4008,45 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_691818-MLB69468470361_052023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200</t>
+          <t>https://http2.mlstatic.com/D_815108-MLB74652667703_022024-I.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Jfa Redline - Controle Distância C/ Plug P2 Wr / Resistiva</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ls Distribuidora</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>508.342</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>252,00</t>
+          <t>117,27</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>117,27</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3670,40 +4055,45 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>https://http2.mlstatic.com/D_722336-MLB78276565613_082024-I.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>59,99</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>239,96</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>115,80</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3712,40 +4102,45 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_796803-MLB78276392635_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>525.709</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>231,60</t>
+          <t>110,25</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>110,25</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3754,40 +4149,45 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_683477-MLB46479627786_062021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Controle Jfa Red Line Longa Distância</t>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>115,47</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>230,94</t>
+          <t>50,82</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>101,64</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3796,40 +4196,45 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_690691-MLB75462291152_042024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+          <t>https://http2.mlstatic.com/D_957397-MLU73268897371_122023-I.jpg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>56,27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>225,08</t>
+          <t>50,62</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>101,24</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3838,40 +4243,45 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_697816-MLB73703605982_012024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
+          <t>https://http2.mlstatic.com/D_745260-MLB72817615283_112023-I.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>75,00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>225,00</t>
+          <t>96,23</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3880,40 +4290,45 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_852206-MLB78925285199_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>110,25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>220,50</t>
+          <t>84,00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>84,00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3922,40 +4337,45 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_753289-MLU73077026384_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MOTOR SHOP 2</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>71,25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>213,75</t>
+          <t>78,99</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>78,99</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -3964,40 +4384,45 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_796921-MLB69227122133_052023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K120</t>
+          <t>https://http2.mlstatic.com/D_629350-MLB52129212974_102022-I.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Resistente A Água </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>52,01</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>208,04</t>
+          <t>74,90</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>74,90</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4006,40 +4431,45 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_745260-MLB72817615283_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>https://http2.mlstatic.com/D_628157-MLB75342743968_032024-I.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Jfa K1200 - Controles Longa Distancia Pi</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>487.758</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>96,23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>192,46</t>
+          <t>67,00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>67,00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4048,40 +4478,45 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_853391-MLB44847464798_022021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>59,99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>179,97</t>
+          <t>65,32</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>65,32</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4090,40 +4525,45 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>https://http2.mlstatic.com/D_683532-MLU75548547065_042024-I.jpg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>PEDROSO BIBI</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>173,70</t>
+          <t>64,98</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>64,98</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4132,40 +4572,45 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_900675-MLB54692317757_032023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Controle Jfa Resistente Água Automotivo Longa Distância</t>
+          <t>https://http2.mlstatic.com/D_702115-MLB71978576287_092023-I.jpg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa K1200</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LIKE PARTS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>83,63</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>167,26</t>
+          <t>64,00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>64,00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4174,40 +4619,45 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>https://http2.mlstatic.com/D_732284-MLU75940257984_042024-I.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa Acqua 1200</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ZARI PARTS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>161,70</t>
+          <t>62,00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>62,00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4216,40 +4666,45 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_767072-MLB50865489711_072022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>157,80</t>
+          <t>61,90</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>61,90</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4258,40 +4713,45 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_764269-MLU74256024653_012024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>https://http2.mlstatic.com/D_853391-MLB44847464798_022021-I.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>52,01</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>156,03</t>
+          <t>59,99</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>59,99</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4300,40 +4760,45 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_806349-MLB45142502910_032021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
+          <t>https://http2.mlstatic.com/D_839055-MLU78291399465_082024-I.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>66,20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>132,40</t>
+          <t>59,99</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>59,99</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4342,40 +4807,45 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_873308-MLU73426528929_122023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_762278-MLU78595598197_082024-I.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>525.709</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>61,70</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>123,40</t>
+          <t>59,90</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>59,90</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4384,40 +4854,45 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_607787-MLB49772557863_042022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>https://http2.mlstatic.com/D_779329-MLB50890001188_072022-I.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BRO E-COMMERCE</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>117,52</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>117,52</t>
+          <t>57,90</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
+        <is>
+          <t>57,90</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4426,40 +4901,45 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_797938-MLU77941843595_072024-I.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Laranja/preto</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>115,80</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4468,40 +4948,45 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_839434-MLB48043881159_102021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>https://http2.mlstatic.com/D_631002-MLB69344193359_052023-I.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa K600 + Cent</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MR STA CATARINA</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>114,39</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>114,39</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>54,90</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4510,40 +4995,45 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_942598-MLB41718006581_052020-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TEM ONLINE</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>56,60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>113,20</t>
+          <t>54,15</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
+        <is>
+          <t>54,15</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4552,40 +5042,45 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_919583-MLB69835390787_062023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BRAZIL ACESSÓRIOS</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>110,00</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>110,00</t>
+          <t>53,99</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
+        <is>
+          <t>53,99</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4594,40 +5089,45 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>https://http2.mlstatic.com/D_676037-MLB44847493238_022021-I.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Controle Remoto Universal Longa Distânci</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>53,99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>107,98</t>
+          <t>53,90</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
+        <is>
+          <t>53,90</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4636,40 +5136,45 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_684625-MLB69336441030_052023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
+          <t>https://http2.mlstatic.com/D_817671-MLB31813279257_082019-I.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>51,83</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>103,66</t>
+          <t>52,90</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>52,90</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4678,40 +5183,45 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_822396-MLA79267361566_092024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>https://http2.mlstatic.com/D_668914-MLB78046952434_082024-I.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Inversor 24v Para 110v Senoidal Pura 200</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>64,90</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>64,90</t>
+          <t>1.785,00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
+        <is>
+          <t>3.570,00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4720,40 +5230,45 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_770684-MLU78454788268_082024-I.jpg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Inversor 12v Para 110v Senoidal Pura 2000w Pico 4000w Jfa</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>63,90</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>63,90</t>
+          <t>1.699,15</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>3.398,30</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4762,40 +5277,45 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_663657-MLB50546236285_072022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
+          <t>https://http2.mlstatic.com/D_675828-MLU78394143348_082024-I.jpg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000w 24v 220v Pico 4000w</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>63,90</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>63,90</t>
+          <t>1.783,30</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
+        <is>
+          <t>1.783,30</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4804,40 +5324,45 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_903977-MLB78276685801_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+          <t>https://http2.mlstatic.com/D_612051-MLU78686309569_082024-I.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 24v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>61,90</t>
-        </is>
-      </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>61,90</t>
+          <t>1.699,15</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>1.699,15</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4846,40 +5371,45 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_820716-MLB78276343629_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>https://http2.mlstatic.com/D_745965-MLU78436583996_082024-I.jpg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 220v Pico 4000w</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>61,90</t>
-        </is>
-      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>61,90</t>
+          <t>1.657,75</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
+        <is>
+          <t>1.657,75</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4888,40 +5418,45 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_660866-MLU74456093303_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>https://http2.mlstatic.com/D_838570-MLB75889451737_042024-I.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SUPREMA DIST.</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>61,75</t>
-        </is>
-      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>61,75</t>
+          <t>1.521,41</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
+        <is>
+          <t>1.521,41</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4930,40 +5465,45 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_682880-MLU74615278003_022024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>https://http2.mlstatic.com/D_690881-MLB49266022687_032022-I.jpg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 60a Slim Bivolt Sistema Inteligente Sci</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ENERGY SOUND</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>61,19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>61,19</t>
+          <t>374,69</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
+        <is>
+          <t>1.124,07</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -4972,40 +5512,45 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_854982-MLB78276776957_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Verme</t>
+          <t>https://http2.mlstatic.com/D_720608-MLB51559805129_092022-I.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>456,44</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
+        <is>
+          <t>912,88</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5014,40 +5559,45 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_683682-MLB78050101410_082024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>57,90</t>
-        </is>
-      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>423,70</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
+        <is>
+          <t>423,70</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5056,40 +5606,45 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_817587-MLB42102190525_062020-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
+          <t>https://http2.mlstatic.com/D_814550-MLB72957017606_112023-I.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>56,94</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>56,94</t>
+          <t>308,63</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
+        <is>
+          <t>308,63</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5098,40 +5653,45 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_931665-MLB69501339562_052023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Cent</t>
+          <t>https://http2.mlstatic.com/D_831836-MLB47751909816_102021-I.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>54,99</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>54,99</t>
+          <t>52,71</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
+        <is>
+          <t>316,26</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5140,40 +5700,45 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_943186-MLA80337486073_102024-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>58,90</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
+        <is>
+          <t>235,60</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5182,40 +5747,45 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_868601-MLB54036220046_022023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>54,15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>54,15</t>
+          <t>58,10</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
+        <is>
+          <t>174,30</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5224,40 +5794,45 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_602975-MLU72647031142_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>https://http2.mlstatic.com/D_758065-MLB31119939603_062019-I.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>50,25</t>
-        </is>
-      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>50,25</t>
+          <t>90,64</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>90,64</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5266,40 +5841,45 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_948563-MLB48108714022_112021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200</t>
+          <t>https://http2.mlstatic.com/D_931162-MLB31145075002_062019-I.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>47.110</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>45,56</t>
-        </is>
-      </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>74,00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
+        <is>
+          <t>74,00</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5308,40 +5888,45 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_903870-MLB50861751187_072022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+          <t>https://http2.mlstatic.com/D_725294-MLB41422293324_042020-I.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>TEM ONLINE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>530,10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.060,20</t>
+          <t>57,60</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
+        <is>
+          <t>57,60</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5350,40 +5935,45 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_814550-MLB72957017606_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>925,89</t>
+          <t>39,90</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>239,40</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5392,40 +5982,45 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>https://http2.mlstatic.com/D_816724-MLB27726608589_072018-I.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>847,40</t>
+          <t>37,00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
+        <is>
+          <t>222,00</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5434,40 +6029,45 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_790111-MLB71583539893_092023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>https://http2.mlstatic.com/D_627983-MLB44878240395_022021-I.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Conversor Rca Remoto Slim Automotivo Jfa</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>566,99</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>566,99</t>
+          <t>34,32</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>205,92</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5476,40 +6076,45 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_720608-MLB51559805129_092022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>https://http2.mlstatic.com/D_684254-MLB31064438388_062019-I.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>456,44</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>456,44</t>
+          <t>44,00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5518,40 +6123,45 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_799022-MLB73037590273_112023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>40,85</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
+        <is>
+          <t>81,70</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5560,40 +6170,45 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_985730-MLB50282776217_062022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
+          <t>https://http2.mlstatic.com/D_942578-MLB54430716847_032023-I.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>414,87</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>414,87</t>
+          <t>39,90</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
+        <is>
+          <t>79,80</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5602,40 +6217,45 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
+          <t>https://http2.mlstatic.com/D_661279-MLB51929304822_102022-I.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Equalizador E Balanceador Banco De Baterias 24v E 48v Jfa</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>PLAYNETWORK TECN</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>58,90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>589,00</t>
+          <t>169,00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
+        <is>
+          <t>169,00</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5644,40 +6264,45 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_831836-MLB47751909816_102021-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+          <t>https://http2.mlstatic.com/D_951764-MLB72845857330_112023-I.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>Equalizador E Balanceador De Baterias Solar Off Grid Jfa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>RADICALSOM</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>52,71</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>527,10</t>
+          <t>165,60</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
+        <is>
+          <t>165,60</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5686,40 +6311,45 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_828017-MLB49774440089_042022-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Kit 2 Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético</t>
+          <t>https://http2.mlstatic.com/D_879495-MLB73487538274_122023-I.jpg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Kit 2 Equalizador Balanceador Para Banco</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ELETROKING</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>118,32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>236,64</t>
+          <t>313,90</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>313,90</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5728,40 +6358,45 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_741366-MLB31145062343_062019-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
+          <t>https://http2.mlstatic.com/D_809291-MLB77493067490_072024-I.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>Régua Patch Panel 5 Portas Poe Gigabit J</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>47.110</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>PLAYNETWORK TECN</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>74,00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>222,00</t>
+          <t>239,00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5770,40 +6405,45 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_931162-MLB31145075002_062019-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
+          <t>https://http2.mlstatic.com/D_757345-MLB45826987502_052021-I.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>47.110</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>74,00</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>148,00</t>
+          <t>49,40</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>148,20</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
@@ -5812,1174 +6452,45 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_866836-MLB73171786026_122023-I.jpg</t>
+          <t>28-11-2024</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Supressor De Ruídos Filtro Rca Jfa 20/20k - 2 Canais</t>
+          <t>https://http2.mlstatic.com/D_818029-MLB46391236579_062021-I.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>clássico</t>
+          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Altabaixa Voltagem</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CIA DO SOM AUTO</t>
+          <t>clássico</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>61,66</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>123,32</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>58,10</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>116,20</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_651872-MLB77432401375_072024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>57,76</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>115,52</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_853523-MLB50896040291_072022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruido Rca 20/20k Jfa - Isola</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>35.284</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>77,30</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>77,30</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_919320-MLB54432200940_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>61,50</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>61,50</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_671938-MLB47751896566_102021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>59,90</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>59,90</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_969557-MLB54590722696_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>MR STA CATARINA</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>59,32</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>59,32</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_651282-MLB31026636553_062019-I.jpg</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>55,71</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>55,71</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_992276-MLB31357157758_072019-I.jpg</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>51,93</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>51,93</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>39,90</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>957,60</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_816724-MLB27726608589_072018-I.jpg</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>37,00</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>370,00</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>40,85</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>326,80</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>34,32</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>274,56</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_942578-MLB54430716847_032023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>39,90</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>119,70</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>RENOV VENDAS</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>32,80</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>98,40</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_691080-MLB71367811985_082023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>48,95</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>48,95</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_763912-MLB31075681648_062019-I.jpg</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>40,10</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>40,10</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_920460-MLA79409897606_092024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>37,00</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>37,00</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_951764-MLB72845857330_112023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Equalizador E Balanceador De Baterias Solar Off Grid Jfa</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>165,60</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>1.490,40</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_661279-MLB51929304822_102022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Equalizador Para Banco De Baterias Jfa</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>PLAYNETWORK TECN</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>169,00</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>507,00</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_723571-MLB75839882563_042024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Inversor Jfa 2000w 24v 220v Off-grid Sen</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>1.696,70</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>1.696,70</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_741726-MLB70695708129_072023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Fonte Nobreak Retificadora 24v/6a Rack Ou Bancada - Jfa</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>DINO TELECOM</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>620,00</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>1.240,00</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_607356-MLB76002146225_042024-I.jpg</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>845,00</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>845,00</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_879495-MLB73487538274_122023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>313,90</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>313,90</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_757345-MLB45826987502_052021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>49,40</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>197,60</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_818029-MLB46391236579_062021-I.jpg</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Altabaixa Voltagem</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>54,90</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_958689-MLA50213877822_062022-I.jpg</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>57,99</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>57,99</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_964672-MLB71407052530_092023-I.jpg</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Válvula De Descarga Rápida Suspensor Pneumático 1/4x1/4 Npt</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>clássico</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>494.177</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>27,52</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>27,52</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>

--- a/items.xlsx
+++ b/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+          <t>Fonte Carregador Bateria Bivolt Bob Stor</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+          <t>Fonte Carregador Bateria Bivolt Bob Stor</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distância Jfa Acqua 1200</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11379,6 +11379,100 @@
         </is>
       </c>
       <c r="I233" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_612246-MLB77270307729_062024-I.jpg</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>62,90</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>440,30</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_887792-MLB71828660160_092023-I.jpg</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>345,66</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>345,66</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
